--- a/项目文档/前台接口/友情链接接口文档.xlsx
+++ b/项目文档/前台接口/友情链接接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="核对清单 - 核对清单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>模块</t>
   </si>
@@ -58,6 +58,20 @@
     <t>start pageSize</t>
   </si>
   <si>
+    <r>
+      <t>默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>start1 pageSize 10</t>
+    </r>
+  </si>
+  <si>
     <t>/web/link/findById</t>
   </si>
   <si>
@@ -90,11 +104,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -184,9 +198,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,55 +295,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,58 +324,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -332,13 +346,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,169 +490,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,15 +551,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,11 +596,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,15 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,6 +632,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -646,10 +660,10 @@
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,16 +672,16 @@
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,116 +693,116 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -823,6 +837,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2074,7 +2091,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
@@ -2149,75 +2166,77 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A7" s="19" t="s">
-        <v>19</v>
+      <c r="A7" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A8" s="22" t="s">
-        <v>21</v>
+      <c r="A8" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9"/>
       <c r="D9" s="4"/>
@@ -2225,7 +2244,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="6"/>
       <c r="C10" s="11"/>
       <c r="D10" s="6"/>
@@ -2233,7 +2252,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4"/>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
@@ -2241,7 +2260,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="6"/>
       <c r="C12" s="11"/>
       <c r="D12" s="6"/>
@@ -2249,7 +2268,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
@@ -2257,7 +2276,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="6"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6"/>
@@ -2265,7 +2284,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="4"/>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -2273,7 +2292,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="6"/>
@@ -2281,7 +2300,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -2289,7 +2308,7 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="6"/>
       <c r="C18" s="11"/>
       <c r="D18" s="6"/>
@@ -2297,7 +2316,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="4"/>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
@@ -2305,7 +2324,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="6"/>
       <c r="C20" s="11"/>
       <c r="D20" s="6"/>
@@ -2313,7 +2332,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="4"/>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
@@ -2321,7 +2340,7 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="6"/>
       <c r="C22" s="11"/>
       <c r="D22" s="6"/>
@@ -2329,7 +2348,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="4"/>
       <c r="C23" s="9"/>
       <c r="D23" s="4"/>
@@ -2337,7 +2356,7 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="6"/>
@@ -2345,7 +2364,7 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A25" s="26"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="4"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4"/>
@@ -2353,7 +2372,7 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>
       <c r="D26" s="6"/>
@@ -2361,7 +2380,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A27" s="26"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="4"/>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -2369,7 +2388,7 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11"/>
       <c r="D28" s="6"/>
@@ -2377,7 +2396,7 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A29" s="26"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="4"/>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -2385,7 +2404,7 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="6"/>
       <c r="C30" s="11"/>
       <c r="D30" s="6"/>
